--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\FLRbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\FLRbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789840D7-2404-480A-8F40-C7CD3E312472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270"/>
+    <workbookView xWindow="3915" yWindow="1065" windowWidth="23805" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SourceData" sheetId="2" r:id="rId2"/>
     <sheet name="FLRbI" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Source:</t>
   </si>
@@ -53,9 +65,6 @@
     <t>Agriculture</t>
   </si>
   <si>
-    <t>mining</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -149,60 +158,12 @@
     <t>The numbers in this table are based on a $15/ton CO2 tax in Annex I Countries.</t>
   </si>
   <si>
-    <t>cement and other carbonate use</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>other industries</t>
-  </si>
-  <si>
-    <t>http://www.worldcement.com/news/cement/articles/Cement_global_trading_patterns_961.aspx#.UyvL5fldWE8</t>
-  </si>
-  <si>
-    <t>Included in Other Industries</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>FLRbI Foreign Leakage Rate by Industry</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>Cement and other carbonates' leakage rate might be slightly high because RFF doesn't break down non-metallic</t>
-  </si>
-  <si>
-    <t>mineral products.  However, it would be wrong to assume that cement is too heavy and bulky per unit value to</t>
-  </si>
-  <si>
-    <t>make international trade worthwhile.  The U.S. imports 36 million tons of cement every year (about as much</t>
-  </si>
-  <si>
-    <t>as China exports), according to World Cement Magazine:</t>
-  </si>
-  <si>
-    <t>We assume zero leakage for waste management, which is primarily water treatment and cannot be offshored.</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
     <t>This is always negative.  This is the reduction in U.S. emissions from a sector in response to</t>
   </si>
   <si>
@@ -329,18 +290,99 @@
     <t>reduced (this is the case for oil).</t>
   </si>
   <si>
-    <t>Leakage Rate (dimensionless)</t>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>We assume zero leakage for water and waste, which is primarily water treatment and cannot be offshored.</t>
+  </si>
+  <si>
+    <t>We take an average of other manufacturing categories here to avoid an unrealistic outlier (170.5% leakage rate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +413,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,21 +437,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -412,7 +465,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,25 +473,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -534,6 +594,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,6 +646,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,25 +838,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,350 +862,321 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="A22" r:id="rId2" location=".UyvL5fldWE8"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.265625" customWidth="1"/>
-    <col min="2" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="8" max="8" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16">
         <v>-7457</v>
       </c>
       <c r="C3">
@@ -1125,21 +1188,19 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="14">
         <v>22</v>
       </c>
-      <c r="G3" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" s="13">
+        <f t="shared" ref="G3:G17" si="0">-F3/B3</f>
+        <v>2.9502480890438512E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>-623</v>
       </c>
       <c r="C4">
@@ -1151,21 +1212,19 @@
       <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <v>26</v>
       </c>
-      <c r="G4" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1733547351524881E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14">
         <v>-317</v>
       </c>
       <c r="C5">
@@ -1177,21 +1236,19 @@
       <c r="E5">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14">
         <v>30</v>
       </c>
-      <c r="G5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>9.4637223974763401E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>-889</v>
       </c>
       <c r="C6">
@@ -1203,21 +1260,19 @@
       <c r="E6">
         <v>-9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>-16</v>
       </c>
-      <c r="G6" s="5">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.799775028121485E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4">
+        <v>15</v>
+      </c>
+      <c r="B7" s="16">
         <v>-7933</v>
       </c>
       <c r="C7">
@@ -1229,21 +1284,19 @@
       <c r="E7">
         <v>35</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14">
         <v>79</v>
       </c>
-      <c r="G7" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>9.958401613513173E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="16">
         <v>-18447</v>
       </c>
       <c r="C8">
@@ -1255,19 +1308,19 @@
       <c r="E8">
         <v>701</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="16">
         <v>1522</v>
       </c>
-      <c r="G8" s="5">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>8.2506640646175536E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16">
         <v>-14947</v>
       </c>
       <c r="C9">
@@ -1279,19 +1332,19 @@
       <c r="E9" s="4">
         <v>2726</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="16">
         <v>3955</v>
       </c>
-      <c r="G9" s="5">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26460159229276781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16">
         <v>-10110</v>
       </c>
       <c r="C10">
@@ -1303,19 +1356,19 @@
       <c r="E10">
         <v>683</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="14">
         <v>961</v>
       </c>
-      <c r="G10" s="5">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>9.50544015825915E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16">
         <v>-4616</v>
       </c>
       <c r="C11">
@@ -1327,19 +1380,19 @@
       <c r="E11">
         <v>399</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <v>691</v>
       </c>
-      <c r="G11" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.14969670710571925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
         <v>-1821</v>
       </c>
       <c r="C12">
@@ -1351,21 +1404,19 @@
       <c r="E12">
         <v>68</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>245</v>
       </c>
-      <c r="G12" s="5">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13454146073585943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16">
         <v>-1010</v>
       </c>
       <c r="C13">
@@ -1377,21 +1428,19 @@
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>12</v>
       </c>
-      <c r="G13" s="5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1881188118811881E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16">
         <v>-1434</v>
       </c>
       <c r="C14">
@@ -1403,21 +1452,19 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>7</v>
       </c>
-      <c r="G14" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8814504881450485E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="B15" s="14">
         <v>-572</v>
       </c>
       <c r="C15">
@@ -1429,21 +1476,19 @@
       <c r="E15">
         <v>79</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>76</v>
       </c>
-      <c r="G15" s="5">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13286713286713286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="16">
         <v>-1496</v>
       </c>
       <c r="C16">
@@ -1455,21 +1500,19 @@
       <c r="E16">
         <v>18</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="14">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0053475935828879E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14">
         <v>-183</v>
       </c>
       <c r="C17">
@@ -1481,21 +1524,22 @@
       <c r="E17">
         <v>305</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="14">
         <v>312</v>
       </c>
-      <c r="G17" s="5">
-        <v>1.702</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="19">
+        <f>AVERAGE(G3:G16)</f>
+        <v>7.2094113727029757E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="16">
         <v>-3229</v>
       </c>
       <c r="C18">
@@ -1507,19 +1551,19 @@
       <c r="E18">
         <v>-5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="14">
         <v>19</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="13">
         <f>-F18/B18</f>
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <v>-510</v>
       </c>
       <c r="C19">
@@ -1531,19 +1575,19 @@
       <c r="E19">
         <v>-92</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="14">
         <v>-107</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19:G30" si="0">-F19/B19</f>
+      <c r="G19" s="13">
+        <f t="shared" ref="G19:G30" si="1">-F19/B19</f>
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4">
+        <v>25</v>
+      </c>
+      <c r="B20" s="16">
         <v>-2088</v>
       </c>
       <c r="C20" s="4">
@@ -1555,19 +1599,19 @@
       <c r="E20">
         <v>828</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="16">
         <v>-1314</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
+      <c r="G20" s="13">
+        <f t="shared" si="1"/>
         <v>-0.62931034482758619</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="B21" s="14">
         <v>-428</v>
       </c>
       <c r="C21">
@@ -1579,19 +1623,19 @@
       <c r="E21">
         <v>-613</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="14">
         <v>-839</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
+      <c r="G21" s="13">
+        <f t="shared" si="1"/>
         <v>-1.9602803738317758</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14">
         <v>-11</v>
       </c>
       <c r="C22">
@@ -1603,19 +1647,19 @@
       <c r="E22">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="14">
         <v>9</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
+      <c r="G22" s="13">
+        <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4">
+        <v>28</v>
+      </c>
+      <c r="B23" s="16">
         <v>-411572</v>
       </c>
       <c r="C23">
@@ -1627,19 +1671,19 @@
       <c r="E23">
         <v>227</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="16">
         <v>1263</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
+      <c r="G23" s="13">
+        <f t="shared" si="1"/>
         <v>3.0687218761237403E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4">
+        <v>29</v>
+      </c>
+      <c r="B24" s="16">
         <v>-6542</v>
       </c>
       <c r="C24">
@@ -1651,19 +1695,19 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="14">
         <v>10</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
+      <c r="G24" s="13">
+        <f t="shared" si="1"/>
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14">
         <v>-881</v>
       </c>
       <c r="C25">
@@ -1675,19 +1719,19 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
+      <c r="G25" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
+        <v>11</v>
+      </c>
+      <c r="B26" s="16">
         <v>-5443</v>
       </c>
       <c r="C26">
@@ -1699,19 +1743,19 @@
       <c r="E26">
         <v>-2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="14">
         <v>-4</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
+      <c r="G26" s="13">
+        <f t="shared" si="1"/>
         <v>-7.3488884806173071E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4">
+        <v>30</v>
+      </c>
+      <c r="B27" s="16">
         <v>-67547</v>
       </c>
       <c r="C27" s="4">
@@ -1723,19 +1767,19 @@
       <c r="E27">
         <v>296</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="16">
         <v>4077</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
+      <c r="G27" s="13">
+        <f t="shared" si="1"/>
         <v>6.0357972966971145E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="14">
         <v>-116</v>
       </c>
       <c r="C28">
@@ -1747,19 +1791,19 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>2</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
+      <c r="G28" s="13">
+        <f t="shared" si="1"/>
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="B29" s="14">
         <v>-827</v>
       </c>
       <c r="C29">
@@ -1771,19 +1815,19 @@
       <c r="E29">
         <v>-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="14">
         <v>-3</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
+      <c r="G29" s="13">
+        <f t="shared" si="1"/>
         <v>-3.6275695284159614E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4">
+        <v>32</v>
+      </c>
+      <c r="B30" s="16">
         <v>-14895</v>
       </c>
       <c r="C30">
@@ -1795,17 +1839,17 @@
       <c r="E30">
         <v>19</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="14">
         <v>19</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
+      <c r="G30" s="13">
+        <f t="shared" si="1"/>
         <v>1.2755958375293723E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1817,102 +1861,254 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.3984375" customWidth="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9">
-        <f>SourceData!G10</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="10">
-        <f>-SUM(SourceData!F8,SourceData!F20,SourceData!F21,SourceData!F24)/SUM(SourceData!B8,SourceData!B20,SourceData!B21,SourceData!B24)</f>
-        <v>-2.2577713143064896E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10">
-        <f>SourceData!G11</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="9">
-        <f>SourceData!G9</f>
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10">
-        <f>-SUM(SourceData!F19,SourceData!F22)/SUM(SourceData!B19,SourceData!B22)</f>
-        <v>-0.18809980806142035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="10">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10">
         <f>SourceData!G18</f>
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>47</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="10">
+        <f>SourceData!G19</f>
+        <v>-0.20980392156862746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="11">
+        <f>-SUM(SourceData!F20:F21)/SUM(SourceData!B20:B21)</f>
+        <v>-0.85572337042925273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="10">
+        <f>SourceData!G22</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="10">
+        <f>SourceData!G3</f>
+        <v>2.9502480890438512E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10">
+        <f>SourceData!G5</f>
+        <v>9.4637223974763401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SourceData!G6</f>
+        <v>-1.799775028121485E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
       </c>
       <c r="B9" s="10">
-        <f>-SUM(SourceData!F3:F7,SourceData!F12:F17)/SUM(SourceData!B3:B7,SourceData!B12:B17)</f>
-        <v>3.3536970718348429E-2</v>
+        <f>SourceData!G7</f>
+        <v>9.958401613513173E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SourceData!G8</f>
+        <v>8.2506640646175536E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="10">
+        <f>SourceData!G9</f>
+        <v>0.26460159229276781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="10">
+        <f>SourceData!G9</f>
+        <v>0.26460159229276781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="10">
+        <f>SourceData!G10</f>
+        <v>9.50544015825915E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="10">
+        <f>SourceData!G10</f>
+        <v>9.50544015825915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="10">
+        <f>SourceData!G11</f>
+        <v>0.14969670710571925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="10">
+        <f>SourceData!G12</f>
+        <v>0.13454146073585943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="10">
+        <f>SourceData!G13</f>
+        <v>1.1881188118811881E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="10">
+        <f>SourceData!G15</f>
+        <v>0.13286713286713286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="10">
+        <f>SourceData!G15</f>
+        <v>0.13286713286713286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10">
+        <f>SourceData!G16</f>
+        <v>2.0053475935828879E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="10">
+        <f>SourceData!G14</f>
+        <v>4.8814504881450485E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SourceData!G14</f>
+        <v>4.8814504881450485E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="10">
+        <f>SourceData!G17</f>
+        <v>7.2094113727029757E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="10">
+        <f>SourceData!G24</f>
+        <v>1.5285845307245491E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="20">
+        <f>SourceData!G25</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\FLRbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\indst\FLRbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789840D7-2404-480A-8F40-C7CD3E312472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813CBAE-247D-4BA0-95F7-2F6B39AFB9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1065" windowWidth="23805" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14130" yWindow="-17025" windowWidth="18390" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Source:</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>We take an average of other manufacturing categories here to avoid an unrealistic outlier (170.5% leakage rate)</t>
+  </si>
+  <si>
+    <t>The EU EPS uses values from the US EPS.</t>
   </si>
 </sst>
 </file>
@@ -491,14 +494,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -839,22 +842,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,261 +867,269 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1135,24 +1148,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.265625" customWidth="1"/>
+    <col min="2" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="14"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1192,11 +1205,11 @@
         <v>22</v>
       </c>
       <c r="G3" s="13">
-        <f t="shared" ref="G3:G17" si="0">-F3/B3</f>
+        <f t="shared" ref="G3:G16" si="0">-F3/B3</f>
         <v>2.9502480890438512E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>4.1733547351524881E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>9.4637223974763401E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1281,7 @@
         <v>-1.799775028121485E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>9.958401613513173E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>8.2506640646175536E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>0.26460159229276781</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1377,7 @@
         <v>9.50544015825915E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +1401,7 @@
         <v>0.14969670710571925</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>0.13454146073585943</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1449,7 @@
         <v>1.1881188118811881E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>4.8814504881450485E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1497,7 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1521,7 @@
         <v>2.0053475935828879E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1540,7 @@
       <c r="F17" s="14">
         <v>312</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <f>AVERAGE(G3:G16)</f>
         <v>7.2094113727029757E-2</v>
       </c>
@@ -1535,7 +1548,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1572,7 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>-0.62931034482758619</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1644,7 @@
         <v>-1.9602803738317758</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1655,7 +1668,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1679,7 +1692,7 @@
         <v>3.0687218761237403E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +1764,7 @@
         <v>-7.3488884806173071E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +1788,7 @@
         <v>6.0357972966971145E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1812,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>-3.6275695284159614E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1847,7 +1860,7 @@
         <v>1.2755958375293723E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1869,13 +1882,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>110</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1910,7 +1923,7 @@
         <v>-0.85572337042925273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1919,7 +1932,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1928,7 +1941,7 @@
         <v>2.9502480890438512E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1937,7 +1950,7 @@
         <v>9.4637223974763401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1946,7 +1959,7 @@
         <v>-1.799775028121485E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1955,7 +1968,7 @@
         <v>9.958401613513173E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>8.2506640646175536E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1973,7 +1986,7 @@
         <v>0.26460159229276781</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>0.26460159229276781</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1991,7 +2004,7 @@
         <v>9.50544015825915E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2000,7 +2013,7 @@
         <v>9.50544015825915E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>0.14969670710571925</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>0.13454146073585943</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2027,7 +2040,7 @@
         <v>1.1881188118811881E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2036,7 +2049,7 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2045,7 +2058,7 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>2.0053475935828879E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2063,7 +2076,7 @@
         <v>4.8814504881450485E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2072,7 +2085,7 @@
         <v>4.8814504881450485E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2081,7 +2094,7 @@
         <v>7.2094113727029757E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2098,11 +2111,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="18">
         <f>SourceData!G25</f>
         <v>0</v>
       </c>

--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\indst\FLRbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\FLRbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813CBAE-247D-4BA0-95F7-2F6B39AFB9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789840D7-2404-480A-8F40-C7CD3E312472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="-17025" windowWidth="18390" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="1065" windowWidth="23805" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Source:</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>We take an average of other manufacturing categories here to avoid an unrealistic outlier (170.5% leakage rate)</t>
-  </si>
-  <si>
-    <t>The EU EPS uses values from the US EPS.</t>
   </si>
 </sst>
 </file>
@@ -494,14 +491,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -842,24 +839,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,269 +862,261 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1148,24 +1135,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.265625" customWidth="1"/>
-    <col min="2" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
@@ -1185,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1205,11 +1192,11 @@
         <v>22</v>
       </c>
       <c r="G3" s="13">
-        <f t="shared" ref="G3:G16" si="0">-F3/B3</f>
+        <f t="shared" ref="G3:G17" si="0">-F3/B3</f>
         <v>2.9502480890438512E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1220,7 @@
         <v>4.1733547351524881E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1244,7 @@
         <v>9.4637223974763401E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1268,7 @@
         <v>-1.799775028121485E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1292,7 @@
         <v>9.958401613513173E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1316,7 @@
         <v>8.2506640646175536E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1340,7 @@
         <v>0.26460159229276781</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1364,7 @@
         <v>9.50544015825915E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>0.14969670710571925</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1412,7 @@
         <v>0.13454146073585943</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1436,7 @@
         <v>1.1881188118811881E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1460,7 @@
         <v>4.8814504881450485E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +1484,7 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1508,7 @@
         <v>2.0053475935828879E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1527,7 @@
       <c r="F17" s="14">
         <v>312</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="19">
         <f>AVERAGE(G3:G16)</f>
         <v>7.2094113727029757E-2</v>
       </c>
@@ -1548,7 +1535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1559,7 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1583,7 @@
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1607,7 @@
         <v>-0.62931034482758619</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1644,7 +1631,7 @@
         <v>-1.9602803738317758</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1668,7 +1655,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1692,7 +1679,7 @@
         <v>3.0687218761237403E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1716,7 +1703,7 @@
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1751,7 @@
         <v>-7.3488884806173071E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1775,7 @@
         <v>6.0357972966971145E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1812,7 +1799,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1836,7 +1823,7 @@
         <v>-3.6275695284159614E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1860,7 +1847,7 @@
         <v>1.2755958375293723E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1882,13 +1869,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1328125" customWidth="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>110</v>
       </c>
@@ -1896,7 +1883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1905,7 +1892,7 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1914,7 +1901,7 @@
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1923,7 +1910,7 @@
         <v>-0.85572337042925273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1932,7 +1919,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1941,7 +1928,7 @@
         <v>2.9502480890438512E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1950,7 +1937,7 @@
         <v>9.4637223974763401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1959,7 +1946,7 @@
         <v>-1.799775028121485E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1968,7 +1955,7 @@
         <v>9.958401613513173E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1977,7 +1964,7 @@
         <v>8.2506640646175536E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1986,7 +1973,7 @@
         <v>0.26460159229276781</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1995,7 +1982,7 @@
         <v>0.26460159229276781</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -2004,7 +1991,7 @@
         <v>9.50544015825915E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2013,7 +2000,7 @@
         <v>9.50544015825915E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2022,7 +2009,7 @@
         <v>0.14969670710571925</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2031,7 +2018,7 @@
         <v>0.13454146073585943</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2040,7 +2027,7 @@
         <v>1.1881188118811881E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2049,7 +2036,7 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2058,7 +2045,7 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2067,7 +2054,7 @@
         <v>2.0053475935828879E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2076,7 +2063,7 @@
         <v>4.8814504881450485E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2085,7 +2072,7 @@
         <v>4.8814504881450485E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2094,7 +2081,7 @@
         <v>7.2094113727029757E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2103,7 +2090,7 @@
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2111,11 +2098,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="20">
         <f>SourceData!G25</f>
         <v>0</v>
       </c>
